--- a/pidsg25-06.xlsx
+++ b/pidsg25-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K9734\Documents\ProcurementPIDSG\Forecast25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debdeeppaul/Documents/Procurement/PIDSG25/forecast25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A9064-87E5-429B-9C8E-113437AEAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F237BD-C81D-1B49-A2C8-BF9B759C924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="144" windowWidth="17100" windowHeight="10968" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="17100" windowHeight="10960" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="from_alvin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="rough" sheetId="4" r:id="rId4"/>
     <sheet name="Eval" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>FY24</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t>% savings</t>
   </si>
+  <si>
+    <t>Demand-APP</t>
+  </si>
+  <si>
+    <t>Demand-PIDSG</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -282,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -303,7 +310,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -850,7 +857,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1399,6 +1406,350 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Eval!$G$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand-APP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Eval!$F$60:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46078</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Eval!$G$60:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>185342.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211816.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208414.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204928.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA12-3147-93A6-B3457149C295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="378198815"/>
+        <c:axId val="379838479"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="378198815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379838479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="379838479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378198815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1479,6 +1830,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1983,6 +2374,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2559,6 +3453,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1C9C8B-78F5-88D9-58B4-3F2A193C0768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2749,13 +3679,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +3778,7 @@
         <v>3922.9615597126849</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2908,7 +3838,7 @@
         <v>1176888.4679138055</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2956,7 +3886,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3934,7 @@
         <v>16429.038440287324</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3994,7 @@
         <v>4928711.5320861973</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3124,7 +4054,7 @@
         <v>2075000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +4102,7 @@
         <v>716420.54463651462</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +4150,7 @@
         <v>2905084.8281634855</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
@@ -3265,7 +4195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3313,7 +4243,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +4303,7 @@
         <v>3667200</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3421,7 +4351,7 @@
         <v>1428380.1531249995</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +4399,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3529,7 +4459,7 @@
         <v>2380800</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +4507,7 @@
         <v>1089619.846875</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -3625,7 +4555,7 @@
         <v>2348422.0799999996</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3673,22 +4603,22 @@
         <v>1522612.2528000001</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
   </sheetData>
@@ -3709,12 +4639,12 @@
       <selection activeCell="J15" activeCellId="1" sqref="H11:H16 J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3808,7 +4738,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3855,7 +4785,7 @@
         <v>1176888</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3902,7 +4832,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3949,7 +4879,7 @@
         <v>16429</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +4926,7 @@
         <v>4928712</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4043,7 +4973,7 @@
         <v>2075000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4090,7 +5020,7 @@
         <v>716421</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4155,12 +5085,12 @@
       <selection activeCell="C12" sqref="C12:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4207,7 +5137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +5184,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4301,7 +5231,7 @@
         <v>3667200</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +5278,7 @@
         <v>1428380</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4395,7 +5325,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4442,7 +5372,7 @@
         <v>2380800</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4489,7 +5419,7 @@
         <v>1089620</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4536,7 +5466,7 @@
         <v>2348422</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4583,7 +5513,7 @@
         <v>1522612</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>45772</v>
       </c>
@@ -4621,7 +5551,7 @@
         <v>45742</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4677,7 +5607,7 @@
         <v>1.720433105627585</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -4749,14 +5679,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -4785,7 +5715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>45772</v>
       </c>
@@ -4823,7 +5753,7 @@
         <v>9773.6625514403295</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>45802</v>
       </c>
@@ -4861,7 +5791,7 @@
         <v>5079.7325102880659</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>45833</v>
       </c>
@@ -4899,7 +5829,7 @@
         <v>9902.2633744855975</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>45863</v>
       </c>
@@ -4937,7 +5867,7 @@
         <v>8326.9032921810704</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>45894</v>
       </c>
@@ -4975,7 +5905,7 @@
         <v>8326.9032921810704</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>45925</v>
       </c>
@@ -5013,7 +5943,7 @@
         <v>6237.1399176954737</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>45955</v>
       </c>
@@ -5051,7 +5981,7 @@
         <v>5208.333333333333</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>45986</v>
       </c>
@@ -5089,7 +6019,7 @@
         <v>6237.1399176954737</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>46016</v>
       </c>
@@ -5127,7 +6057,7 @@
         <v>7298.0967078189306</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>46047</v>
       </c>
@@ -5165,7 +6095,7 @@
         <v>3632.9732510288068</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>46078</v>
       </c>
@@ -5203,7 +6133,7 @@
         <v>5722.7366255144034</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>46106</v>
       </c>
@@ -5253,19 +6183,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C0A8C1-78FE-4A69-B39B-104D697149B8}">
-  <dimension ref="B3:M54"/>
+  <dimension ref="B3:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -5276,7 +6206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
@@ -5308,7 +6238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>45772</v>
       </c>
@@ -5351,7 +6281,7 @@
         <v>307260.04547368421</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>45802</v>
       </c>
@@ -5394,7 +6324,7 @@
         <v>307260.04547368421</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>45833</v>
       </c>
@@ -5437,7 +6367,7 @@
         <v>625446.59873684205</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>45863</v>
       </c>
@@ -5480,7 +6410,7 @@
         <v>837570.96757894731</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>45894</v>
       </c>
@@ -5523,7 +6453,7 @@
         <v>1039329.1764210517</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>45925</v>
       </c>
@@ -5566,7 +6496,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>45955</v>
       </c>
@@ -5609,7 +6539,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>45986</v>
       </c>
@@ -5652,7 +6582,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>46016</v>
       </c>
@@ -5695,7 +6625,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>46047</v>
       </c>
@@ -5738,7 +6668,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>46078</v>
       </c>
@@ -5781,7 +6711,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>46106</v>
       </c>
@@ -5824,7 +6754,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F17">
         <f>SUM(F5:F16)</f>
         <v>45922.710905349784</v>
@@ -5842,13 +6772,13 @@
         <v>3879440.5531492545</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I18">
         <f>I17/G17</f>
         <v>43.703958962899343</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -5859,7 +6789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
@@ -5888,7 +6818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>45772</v>
       </c>
@@ -5924,7 +6854,7 @@
         <v>307260.04547368421</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <v>45802</v>
       </c>
@@ -5960,7 +6890,7 @@
         <v>307260.04547368421</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>45833</v>
       </c>
@@ -5996,7 +6926,7 @@
         <v>625446.59873684205</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <v>45863</v>
       </c>
@@ -6032,7 +6962,7 @@
         <v>837570.96757894731</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>45894</v>
       </c>
@@ -6068,7 +6998,7 @@
         <v>1039329.1764210517</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>45925</v>
       </c>
@@ -6104,7 +7034,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>45955</v>
       </c>
@@ -6140,7 +7070,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>45986</v>
       </c>
@@ -6176,7 +7106,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>46016</v>
       </c>
@@ -6212,7 +7142,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>46047</v>
       </c>
@@ -6248,7 +7178,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>46078</v>
       </c>
@@ -6284,7 +7214,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <v>46106</v>
       </c>
@@ -6320,7 +7250,7 @@
         <v>1072454.3241951317</v>
       </c>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F33">
         <f>SUM(F21:F32)</f>
         <v>45922.710905349784</v>
@@ -6338,13 +7268,13 @@
         <v>3420879.3241951317</v>
       </c>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I34">
         <f>I33/G33</f>
         <v>28.269170615338606</v>
       </c>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>39</v>
       </c>
@@ -6364,7 +7294,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E38" s="7">
+        <v>45772</v>
+      </c>
       <c r="F38">
         <f>SUM(F5:G5)</f>
         <v>9773.6625514403295</v>
@@ -6381,20 +7314,23 @@
         <v>0.05</v>
       </c>
       <c r="J38">
-        <f>H38*I38*K38</f>
+        <f t="shared" ref="J38:J49" si="9">H38*I38*K38</f>
         <v>2641.4609053497929</v>
       </c>
       <c r="K38">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E39" s="7">
+        <v>45802</v>
+      </c>
       <c r="F39">
-        <f t="shared" ref="F39:F49" si="9">SUM(F6:G6)</f>
+        <f t="shared" ref="F39:F49" si="10">SUM(F6:G6)</f>
         <v>5079.7325102880659</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G49" si="10">SUM(F22:G22)</f>
+        <f t="shared" ref="G39:G49" si="11">SUM(F22:G22)</f>
         <v>11886.831275720164</v>
       </c>
       <c r="H39">
@@ -6405,254 +7341,284 @@
         <v>0.05</v>
       </c>
       <c r="J39">
-        <f>H39*I39*K39</f>
+        <f t="shared" si="9"/>
         <v>11150.334362139914</v>
       </c>
       <c r="K39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E40" s="7">
+        <v>45833</v>
+      </c>
       <c r="F40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9902.2633744855975</v>
       </c>
       <c r="G40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11886.831275720164</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:H49" si="11">H39+G40-F40</f>
+        <f t="shared" ref="H40:H49" si="12">H39+G40-F40</f>
         <v>10904.835390946499</v>
       </c>
       <c r="I40">
         <v>0.05</v>
       </c>
       <c r="J40">
-        <f>H40*I40*K40</f>
+        <f t="shared" si="9"/>
         <v>13631.044238683122</v>
       </c>
       <c r="K40">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E41" s="7">
+        <v>45863</v>
+      </c>
       <c r="F41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8326.9032921810704</v>
       </c>
       <c r="G41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11886.831275720164</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14464.763374485594</v>
       </c>
       <c r="I41">
         <v>0.05</v>
       </c>
       <c r="J41">
-        <f>H41*I41*K41</f>
+        <f t="shared" si="9"/>
         <v>18080.954218106992</v>
       </c>
       <c r="K41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E42" s="7">
+        <v>45894</v>
+      </c>
       <c r="F42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8326.9032921810704</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11544.753086419725</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17682.613168724245</v>
       </c>
       <c r="I42">
         <v>0.05</v>
       </c>
       <c r="J42">
-        <f>H42*I42*K42</f>
+        <f t="shared" si="9"/>
         <v>22103.26646090531</v>
       </c>
       <c r="K42">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E43" s="7">
+        <v>45925</v>
+      </c>
       <c r="F43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6237.1399176954737</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8166.1499588477345</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19611.623209876507</v>
       </c>
       <c r="I43">
         <v>0.05</v>
       </c>
       <c r="J43">
-        <f>H43*I43*K43</f>
+        <f t="shared" si="9"/>
         <v>24514.529012345633</v>
       </c>
       <c r="K43">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E44" s="7">
+        <v>45955</v>
+      </c>
       <c r="F44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5208.333333333333</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2764.9176954732511</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17168.207572016425</v>
       </c>
       <c r="I44">
         <v>0.05</v>
       </c>
       <c r="J44">
-        <f>H44*I44*K44</f>
+        <f t="shared" si="9"/>
         <v>21460.259465020532</v>
       </c>
       <c r="K44">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E45" s="7">
+        <v>45986</v>
+      </c>
       <c r="F45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6237.1399176954737</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.3611111111113</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13698.428765432065</v>
       </c>
       <c r="I45">
         <v>0.05</v>
       </c>
       <c r="J45">
-        <f>H45*I45*K45</f>
+        <f t="shared" si="9"/>
         <v>17123.035956790081</v>
       </c>
       <c r="K45">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E46" s="7">
+        <v>46016</v>
+      </c>
       <c r="F46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7298.0967078189306</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.3611111111113</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9167.6931687242432</v>
       </c>
       <c r="I46">
         <v>0.05</v>
       </c>
       <c r="J46">
-        <f>H46*I46*K46</f>
+        <f t="shared" si="9"/>
         <v>11459.616460905305</v>
       </c>
       <c r="K46">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E47" s="7">
+        <v>46047</v>
+      </c>
       <c r="F47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3632.9732510288068</v>
       </c>
       <c r="G47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.3611111111113</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8302.0810288065477</v>
       </c>
       <c r="I47">
         <v>0.05</v>
       </c>
       <c r="J47">
-        <f>H47*I47*K47</f>
+        <f t="shared" si="9"/>
         <v>10377.601286008185</v>
       </c>
       <c r="K47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E48" s="7">
+        <v>46078</v>
+      </c>
       <c r="F48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5722.7366255144034</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.3611111111113</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5346.7055144032556</v>
       </c>
       <c r="I48">
         <v>0.05</v>
       </c>
       <c r="J48">
-        <f>H48*I48*K48</f>
+        <f t="shared" si="9"/>
         <v>6683.3818930040688</v>
       </c>
       <c r="K48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E49" s="7">
+        <v>46106</v>
+      </c>
       <c r="F49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5208.333333333333</v>
       </c>
       <c r="G49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2767.3611111111113</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2905.7332921810339</v>
       </c>
       <c r="I49">
         <v>0.05</v>
       </c>
       <c r="J49">
-        <f>H49*I49*K49</f>
+        <f t="shared" si="9"/>
         <v>3632.1666152262928</v>
       </c>
       <c r="K49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
         <v>42</v>
       </c>
@@ -6661,7 +7627,7 @@
         <v>162857.65087448523</v>
       </c>
     </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
         <v>44</v>
       </c>
@@ -6670,13 +7636,171 @@
         <v>3583736.9750696169</v>
       </c>
     </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
         <v>46</v>
       </c>
       <c r="J54">
         <f>(J17-J52)/J17</f>
         <v>7.622325281917032E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F60" s="7">
+        <v>45833</v>
+      </c>
+      <c r="G60" s="11">
+        <v>185342.5</v>
+      </c>
+      <c r="H60">
+        <v>9902.2633744855975</v>
+      </c>
+      <c r="I60">
+        <f>H60/G60</f>
+        <v>5.3426836124934096E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="7">
+        <v>45863</v>
+      </c>
+      <c r="G61" s="11">
+        <v>211816.5</v>
+      </c>
+      <c r="H61">
+        <v>8326.9032921810704</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ref="I61:I69" si="13">H61/G61</f>
+        <v>3.9311872739758565E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="7">
+        <v>45894</v>
+      </c>
+      <c r="G62" s="11">
+        <v>208414.5</v>
+      </c>
+      <c r="H62">
+        <v>8326.9032921810704</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="13"/>
+        <v>3.9953569891639354E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F63" s="7">
+        <v>45925</v>
+      </c>
+      <c r="G63" s="11">
+        <v>204928.5</v>
+      </c>
+      <c r="H63">
+        <v>6237.1399176954737</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="13"/>
+        <v>3.0435688143403548E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F64" s="7">
+        <v>45955</v>
+      </c>
+      <c r="G64" s="11">
+        <v>201565</v>
+      </c>
+      <c r="H64">
+        <v>5208.333333333333</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="13"/>
+        <v>2.5839472792068729E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F65" s="7">
+        <v>45986</v>
+      </c>
+      <c r="G65" s="11">
+        <v>198121</v>
+      </c>
+      <c r="H65">
+        <v>6237.1399176954737</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="13"/>
+        <v>3.1481467980150883E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F66" s="7">
+        <v>46016</v>
+      </c>
+      <c r="G66" s="11">
+        <v>155050</v>
+      </c>
+      <c r="H66">
+        <v>7298.0967078189306</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="13"/>
+        <v>4.7069311240367173E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F67" s="7">
+        <v>46047</v>
+      </c>
+      <c r="G67" s="11">
+        <v>154700</v>
+      </c>
+      <c r="H67">
+        <v>3632.9732510288068</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="13"/>
+        <v>2.3483989987257963E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F68" s="7">
+        <v>46078</v>
+      </c>
+      <c r="G68" s="11">
+        <v>133350</v>
+      </c>
+      <c r="H68">
+        <v>5722.7366255144034</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="13"/>
+        <v>4.2915160296320982E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F69" s="7">
+        <v>46106</v>
+      </c>
+      <c r="G69" s="11">
+        <v>132650</v>
+      </c>
+      <c r="H69">
+        <v>5208.333333333333</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>3.9263726598818945E-2</v>
       </c>
     </row>
   </sheetData>

--- a/pidsg25-06.xlsx
+++ b/pidsg25-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debdeeppaul/Documents/Procurement/PIDSG25/forecast25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F237BD-C81D-1B49-A2C8-BF9B759C924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D861AC-504B-E84C-BBB4-BBAA39C52A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="500" windowWidth="17100" windowHeight="10960" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="21100" windowHeight="11860" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="from_alvin" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3461,15 +3461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>844550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3686,10 +3686,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="1">
         <v>45383</v>
       </c>
@@ -4151,10 +4151,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1">
         <v>45748</v>
       </c>
@@ -6185,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C0A8C1-78FE-4A69-B39B-104D697149B8}">
   <dimension ref="B3:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7657,7 +7657,7 @@
       <c r="F60" s="7">
         <v>45833</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>185342.5</v>
       </c>
       <c r="H60">
@@ -7672,7 +7672,7 @@
       <c r="F61" s="7">
         <v>45863</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>211816.5</v>
       </c>
       <c r="H61">
@@ -7687,7 +7687,7 @@
       <c r="F62" s="7">
         <v>45894</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>208414.5</v>
       </c>
       <c r="H62">
@@ -7702,7 +7702,7 @@
       <c r="F63" s="7">
         <v>45925</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>204928.5</v>
       </c>
       <c r="H63">
@@ -7717,7 +7717,7 @@
       <c r="F64" s="7">
         <v>45955</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>201565</v>
       </c>
       <c r="H64">
@@ -7732,7 +7732,7 @@
       <c r="F65" s="7">
         <v>45986</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>198121</v>
       </c>
       <c r="H65">
@@ -7747,7 +7747,7 @@
       <c r="F66" s="7">
         <v>46016</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>155050</v>
       </c>
       <c r="H66">
@@ -7762,7 +7762,7 @@
       <c r="F67" s="7">
         <v>46047</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>154700</v>
       </c>
       <c r="H67">
@@ -7777,7 +7777,7 @@
       <c r="F68" s="7">
         <v>46078</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>133350</v>
       </c>
       <c r="H68">
@@ -7792,7 +7792,7 @@
       <c r="F69" s="7">
         <v>46106</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>132650</v>
       </c>
       <c r="H69">
